--- a/biology/Zoologie/Pepsinites/Pepsinites.xlsx
+++ b/biology/Zoologie/Pepsinites/Pepsinites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pepsinites est un genre fossile d'insectes d'hyménoptères de la famille des Pompilidae (guêpes chasseuses d'araignées), de la sous-famille des Pepsinae et de la tribu des Pepsini.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pepsinites a été créé en 2017 par l'entomologiste colombienne Juanita Rodriguez (d) et l'entomologiste brésilienne Cecília Waichert (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pepsinites a été créé en 2017 par l'entomologiste colombienne Juanita Rodriguez (d) et l'entomologiste brésilienne Cecília Waichert (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (10 août 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (10 août 2022) :
 †Pepsinites avitula Cockerell, 1941 (ou Chirodamus avitula ou Pepsis avitula)
 †Pepsinites cockerellae Rohwer, 1909 (ou Agenia cockerellae)
 †Pepsinites contentus Theobald, 1937 (ou Cryptochilus contentus)
